--- a/data/long_dif/P18_3-Urba-long_dif.xlsx
+++ b/data/long_dif/P18_3-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16,01%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12,85%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 13,82</t>
+          <t>6,77; 15,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,98</t>
+          <t>7,49; 14,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,31; 22,81</t>
+          <t>11,28; 23,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,81</t>
+          <t>6,1; 12,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 13,86</t>
+          <t>12,13; 18,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,45; 19,26</t>
+          <t>8,25; 13,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,11</t>
+          <t>13,94; 20,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,77; 13,64</t>
+          <t>12,68; 20,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 19,19</t>
+          <t>10,45; 15,41</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8,48; 13,09</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13,76; 19,83</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 15,49</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>79,35%</t>
+          <t>79,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>74,33%</t>
+          <t>73,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>73,33%</t>
+          <t>73,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>73,41%</t>
+          <t>67,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>69,89%</t>
+          <t>73,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,18%</t>
+          <t>69,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>76,24%</t>
+          <t>67,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>72,01%</t>
+          <t>63,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>76,32%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>71,42%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70,19%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>65,27%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,48; 83,64</t>
+          <t>74,21; 83,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,6; 79,14</t>
+          <t>66,14; 78,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,39; 77,92</t>
+          <t>66,25; 78,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,16; 77,14</t>
+          <t>55,45; 73,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,51; 73,75</t>
+          <t>69,37; 76,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,49; 72,04</t>
+          <t>65,38; 73,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,25; 79,16</t>
+          <t>63,63; 71,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,21; 75,38</t>
+          <t>58,54; 68,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>67,06; 73,7</t>
+          <t>73,03; 78,82</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>67,4; 75,1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>66,56; 72,8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>59,45; 69,13</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>11,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17,97%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13,81%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21,88%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,44; 15,1</t>
+          <t>8,27; 14,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 21,75</t>
+          <t>11,76; 24,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 15,75</t>
+          <t>8,83; 15,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,12; 15,58</t>
+          <t>17,95; 38,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,7; 22,98</t>
+          <t>8,92; 14,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,97; 18,67</t>
+          <t>16,38; 23,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,67; 14,13</t>
+          <t>12,93; 18,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,68; 20,68</t>
+          <t>16,13; 24,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,7; 16,12</t>
+          <t>9,21; 13,24</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,17; 22,26</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11,9; 16,23</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18,55; 28,83</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 13,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 14,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 18,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,17; 19,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 16,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,14; 20,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 15,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 13,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,41; 17,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>76,77%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>74,08%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,06%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>67,97%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>65,85%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>75,48%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>72,35%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>69,97%</t>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,2%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,65; 85,0</t>
+          <t>7,67; 14,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,11; 82,65</t>
+          <t>5,95; 14,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,97; 78,5</t>
+          <t>10,63; 18,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,58; 75,33</t>
+          <t>7,88; 16,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,13; 72,66</t>
+          <t>12,05; 19,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,33; 70,12</t>
+          <t>9,67; 16,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>70,73; 78,62</t>
+          <t>12,82; 19,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,23; 75,7</t>
+          <t>14,61; 25,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66,48; 73,21</t>
+          <t>10,56; 15,29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 14,34</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12,66; 17,81</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,37; 19,29</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>81,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>75,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>73,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>70,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>67,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>65,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>63,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>76,19%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>71,86%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>69,88%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>68,87%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,35; 19,99</t>
+          <t>76,61; 85,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,53; 19,26</t>
+          <t>69,65; 81,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,01; 16,29</t>
+          <t>69,11; 78,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,73; 17,92</t>
+          <t>68,72; 79,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,23; 24,16</t>
+          <t>66,02; 75,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,99; 21,86</t>
+          <t>62,87; 72,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,83; 17,57</t>
+          <t>61,48; 70,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,92; 20,27</t>
+          <t>57,13; 69,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,96; 18,22</t>
+          <t>73,34; 79,32</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>67,93; 75,42</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>66,4; 72,75</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>64,75; 72,67</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>11,01%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15,09%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 16,36</t>
+          <t>5,35; 12,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,06; 16,83</t>
+          <t>10,89; 20,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,85; 27,46</t>
+          <t>8,72; 16,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,45; 19,56</t>
+          <t>9,97; 18,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 15,99</t>
+          <t>10,81; 18,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,92; 20,79</t>
+          <t>15,37; 24,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,16; 15,65</t>
+          <t>14,76; 21,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,73; 13,89</t>
+          <t>13,92; 22,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,49; 21,47</t>
+          <t>8,88; 13,36</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 20,75</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12,79; 17,65</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,15; 19,07</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>79,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>68,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>77,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>78,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>71,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>68,49; 87,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>54,18; 80,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>64,67; 84,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>67,45; 84,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>65,81; 82,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>57,79; 74,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>71,1; 83,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>64,07; 78,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>64,53; 78,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>11,76%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14,22%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>14,29%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,77; 21,57</t>
+          <t>4,8; 17,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,87; 36,8</t>
+          <t>4,76; 18,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,38; 15,05</t>
+          <t>7,96; 30,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,35; 18,91</t>
+          <t>5,37; 23,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,01; 24,3</t>
+          <t>8,7; 21,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,37; 27,42</t>
+          <t>4,47; 17,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,98; 16,9</t>
+          <t>7,54; 20,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>12,45; 27,6</t>
+          <t>10,01; 25,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10,21; 19,18</t>
+          <t>7,83; 16,74</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 14,5</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9,42; 22,51</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9,33; 20,73</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>67,22%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>75,36%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>60,73%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>77,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>67,57%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>62,4%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>77,55%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>71,17%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>71,48%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>61,55%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,34; 11,74</t>
+          <t>66,38; 86,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,57; 13,07</t>
+          <t>50,06; 79,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,93; 18,07</t>
+          <t>63,4; 83,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,42; 16,97</t>
+          <t>39,45; 74,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,4; 13,7</t>
+          <t>68,15; 84,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,86; 17,81</t>
+          <t>66,12; 82,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,48; 13,65</t>
+          <t>58,65; 75,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,09; 12,38</t>
+          <t>50,5; 73,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,45; 17,28</t>
+          <t>71,31; 83,39</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>60,7; 77,83</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>63,62; 77,46</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>48,16; 70,03</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>74,58%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>74,06%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>72,91%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>69,76%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>67,19%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>72,12%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>70,55%</t>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>19,27%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>14,29%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>75,6; 82,7</t>
+          <t>7,46; 22,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>69,53; 77,66</t>
+          <t>13,05; 42,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>70,07; 77,06</t>
+          <t>5,13; 16,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>69,94; 75,92</t>
+          <t>12,51; 51,73</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>66,21; 72,52</t>
+          <t>4,03; 14,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>64,34; 69,84</t>
+          <t>9,48; 22,92</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>73,5; 78,2</t>
+          <t>12,89; 27,21</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>69,79; 74,53</t>
+          <t>11,94; 33,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>68,34; 72,83</t>
+          <t>6,61; 15,83</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>13,07; 31,5</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>10,14; 19,53</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>16,07; 40,55</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>8,73; 15,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,65; 19,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>9,36; 13,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>10,49; 14,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,4; 21,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>14,9; 19,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,28; 14,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>15,37; 19,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>12,93; 15,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>17,4%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>8,03; 12,8</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>7,59; 12,52</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>12,1; 18,99</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>8,07; 13,1</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>12,97; 17,39</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>9,49; 13,68</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>13,93; 18,18</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>14,89; 20,82</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 14,36</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>9,22; 12,36</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 17,75</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 16,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>80,11%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>73,61%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>73,63%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>69,3%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>72,89%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>69,6%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>66,97%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>63,31%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>76,42%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>71,56%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>70,22%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>66,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>76,81; 82,94</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>69,04; 77,3</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>69,38; 76,96</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>63,23; 73,97</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>70,11; 75,5</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>66,49; 72,57</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>64,28; 69,59</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>59,79; 66,72</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>74,24; 78,29</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>68,67; 73,87</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>67,75; 72,29</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>62,77; 69,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>16,53%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>17,03%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>11,09%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>19,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>7,96; 12,38</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>13,25; 21,01</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 14,3</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>16,09; 27,78</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 14,18</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 21,74</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>15,04; 19,21</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>16,56; 22,45</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>9,75; 12,7</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 20,76</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 16,11</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>17,24; 23,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
